--- a/ch_12/openpyxl-viz.xlsx
+++ b/ch_12/openpyxl-viz.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pairplot" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -137,7 +137,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Number of participants by cohort</a:t>
+              <a:t>Score Comparison</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -150,11 +150,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'data'!B1</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -162,12 +157,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'data'!$A$2:$A$5</f>
+              <f>'Sheet'!$A$1:$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$5</f>
+              <f>'Sheet'!$B$1:$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -181,6 +176,21 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Score Type</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -193,14 +203,26 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Score Value</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
     </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -211,7 +233,7 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>3</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
@@ -553,56 +575,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>Average pre score</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
+      <c r="B1" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Average post score</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
